--- a/GUI_Task/branches/RehmanTasks.xlsx
+++ b/GUI_Task/branches/RehmanTasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Tasks</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>GroupSize, GroupSizeColor</t>
+  </si>
+  <si>
+    <t>Kindly complete the project for git hub</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,8 +629,10 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>

--- a/GUI_Task/branches/RehmanTasks.xlsx
+++ b/GUI_Task/branches/RehmanTasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Tasks</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Kindly complete the project for git hub</t>
+  </si>
+  <si>
+    <t>One more file for sync</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +648,9 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
